--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,11 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="1000_sample" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rnd_names" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$C$1001</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">1000_sample!$A$1:$C$1001</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="1311">
   <si>
     <t xml:space="preserve">EXPERT</t>
   </si>
@@ -3966,7 +3967,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3987,6 +3988,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4031,7 +4039,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4042,6 +4050,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4182,8 +4202,8 @@
   </sheetPr>
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A989" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1000" activeCellId="0" sqref="B1000"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15222,13 +15242,13 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A977" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1008" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1003" activeCellId="0" sqref="A1003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.6"/>
   </cols>
   <sheetData>
@@ -21233,10 +21253,10 @@
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="0" t="s">
+      <c r="A501" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B501" s="0" t="s">
+      <c r="B501" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="C501" s="1" t="str">
@@ -21245,10 +21265,10 @@
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="0" t="s">
+      <c r="A502" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B502" s="0" t="s">
+      <c r="B502" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="C502" s="1" t="str">
@@ -21257,10 +21277,10 @@
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="0" t="s">
+      <c r="A503" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B503" s="0" t="s">
+      <c r="B503" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="C503" s="1" t="str">
@@ -21269,10 +21289,10 @@
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="0" t="s">
+      <c r="A504" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B504" s="0" t="s">
+      <c r="B504" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="C504" s="1" t="str">
@@ -21281,10 +21301,10 @@
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="0" t="s">
+      <c r="A505" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B505" s="0" t="s">
+      <c r="B505" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="C505" s="1" t="str">
@@ -21293,10 +21313,10 @@
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="0" t="s">
+      <c r="A506" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B506" s="0" t="s">
+      <c r="B506" s="1" t="s">
         <v>1189</v>
       </c>
       <c r="C506" s="1" t="str">
@@ -21305,10 +21325,10 @@
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
+      <c r="A507" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B507" s="0" t="s">
+      <c r="B507" s="1" t="s">
         <v>1256</v>
       </c>
       <c r="C507" s="1" t="str">
@@ -21317,10 +21337,10 @@
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="0" t="s">
+      <c r="A508" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B508" s="0" t="s">
+      <c r="B508" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="C508" s="1" t="str">
@@ -21329,10 +21349,10 @@
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="0" t="s">
+      <c r="A509" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="B509" s="0" t="s">
+      <c r="B509" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="C509" s="1" t="str">
@@ -21341,10 +21361,10 @@
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="0" t="s">
+      <c r="A510" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B510" s="0" t="s">
+      <c r="B510" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="C510" s="1" t="str">
@@ -21353,10 +21373,10 @@
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="0" t="s">
+      <c r="A511" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B511" s="0" t="s">
+      <c r="B511" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="C511" s="1" t="str">
@@ -21365,10 +21385,10 @@
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="0" t="s">
+      <c r="A512" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B512" s="0" t="s">
+      <c r="B512" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="C512" s="1" t="str">
@@ -21377,10 +21397,10 @@
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="0" t="s">
+      <c r="A513" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B513" s="0" t="s">
+      <c r="B513" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="C513" s="1" t="str">
@@ -21389,10 +21409,10 @@
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="0" t="s">
+      <c r="A514" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="B514" s="0" t="s">
+      <c r="B514" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C514" s="1" t="str">
@@ -21401,10 +21421,10 @@
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="0" t="s">
+      <c r="A515" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B515" s="0" t="s">
+      <c r="B515" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="C515" s="1" t="str">
@@ -21413,10 +21433,10 @@
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="0" t="s">
+      <c r="A516" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="B516" s="0" t="s">
+      <c r="B516" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C516" s="1" t="str">
@@ -21425,10 +21445,10 @@
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="0" t="s">
+      <c r="A517" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B517" s="0" t="s">
+      <c r="B517" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="C517" s="1" t="str">
@@ -21437,10 +21457,10 @@
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="0" t="s">
+      <c r="A518" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B518" s="0" t="s">
+      <c r="B518" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="C518" s="1" t="str">
@@ -21449,10 +21469,10 @@
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="0" t="s">
+      <c r="A519" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="B519" s="0" t="s">
+      <c r="B519" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="C519" s="1" t="str">
@@ -21461,10 +21481,10 @@
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="0" t="s">
+      <c r="A520" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B520" s="0" t="s">
+      <c r="B520" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="C520" s="1" t="str">
@@ -21473,10 +21493,10 @@
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="0" t="s">
+      <c r="A521" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="B521" s="0" t="s">
+      <c r="B521" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="C521" s="1" t="str">
@@ -21485,10 +21505,10 @@
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="0" t="s">
+      <c r="A522" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="B522" s="0" t="s">
+      <c r="B522" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="C522" s="1" t="str">
@@ -21497,10 +21517,10 @@
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="0" t="s">
+      <c r="A523" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="B523" s="0" t="s">
+      <c r="B523" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="C523" s="1" t="str">
@@ -21509,10 +21529,10 @@
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="0" t="s">
+      <c r="A524" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B524" s="0" t="s">
+      <c r="B524" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="C524" s="1" t="str">
@@ -21521,10 +21541,10 @@
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="0" t="s">
+      <c r="A525" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B525" s="0" t="s">
+      <c r="B525" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="C525" s="1" t="str">
@@ -21533,10 +21553,10 @@
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="0" t="s">
+      <c r="A526" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="B526" s="0" t="s">
+      <c r="B526" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="C526" s="1" t="str">
@@ -21545,10 +21565,10 @@
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="0" t="s">
+      <c r="A527" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B527" s="0" t="s">
+      <c r="B527" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="C527" s="1" t="str">
@@ -21557,10 +21577,10 @@
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="0" t="s">
+      <c r="A528" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B528" s="0" t="s">
+      <c r="B528" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="C528" s="1" t="str">
@@ -21569,10 +21589,10 @@
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="0" t="s">
+      <c r="A529" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="B529" s="0" t="s">
+      <c r="B529" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="C529" s="1" t="str">
@@ -21581,10 +21601,10 @@
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="0" t="s">
+      <c r="A530" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B530" s="0" t="s">
+      <c r="B530" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="C530" s="1" t="str">
@@ -21593,10 +21613,10 @@
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="0" t="s">
+      <c r="A531" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B531" s="0" t="s">
+      <c r="B531" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="C531" s="1" t="str">
@@ -21605,10 +21625,10 @@
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="0" t="s">
+      <c r="A532" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B532" s="0" t="s">
+      <c r="B532" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C532" s="1" t="str">
@@ -21617,10 +21637,10 @@
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="0" t="s">
+      <c r="A533" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B533" s="0" t="s">
+      <c r="B533" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="C533" s="1" t="str">
@@ -21629,10 +21649,10 @@
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="0" t="s">
+      <c r="A534" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="B534" s="0" t="s">
+      <c r="B534" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="C534" s="1" t="str">
@@ -21641,10 +21661,10 @@
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="0" t="s">
+      <c r="A535" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B535" s="0" t="s">
+      <c r="B535" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="C535" s="1" t="str">
@@ -21653,10 +21673,10 @@
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="0" t="s">
+      <c r="A536" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="B536" s="0" t="s">
+      <c r="B536" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="C536" s="1" t="str">
@@ -21665,10 +21685,10 @@
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="0" t="s">
+      <c r="A537" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B537" s="0" t="s">
+      <c r="B537" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="C537" s="1" t="str">
@@ -21677,10 +21697,10 @@
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="0" t="s">
+      <c r="A538" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B538" s="0" t="s">
+      <c r="B538" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="C538" s="1" t="str">
@@ -21689,10 +21709,10 @@
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="0" t="s">
+      <c r="A539" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B539" s="0" t="s">
+      <c r="B539" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="C539" s="1" t="str">
@@ -21701,10 +21721,10 @@
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="0" t="s">
+      <c r="A540" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="B540" s="0" t="s">
+      <c r="B540" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="C540" s="1" t="str">
@@ -21713,10 +21733,10 @@
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="0" t="s">
+      <c r="A541" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B541" s="0" t="s">
+      <c r="B541" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="C541" s="1" t="str">
@@ -21725,10 +21745,10 @@
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="0" t="s">
+      <c r="A542" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="B542" s="0" t="s">
+      <c r="B542" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="C542" s="1" t="str">
@@ -21737,10 +21757,10 @@
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="0" t="s">
+      <c r="A543" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B543" s="0" t="s">
+      <c r="B543" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="C543" s="1" t="str">
@@ -21749,10 +21769,10 @@
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="0" t="s">
+      <c r="A544" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B544" s="0" t="s">
+      <c r="B544" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="C544" s="1" t="str">
@@ -21761,10 +21781,10 @@
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="0" t="s">
+      <c r="A545" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B545" s="0" t="s">
+      <c r="B545" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="C545" s="1" t="str">
@@ -21773,10 +21793,10 @@
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="0" t="s">
+      <c r="A546" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B546" s="0" t="s">
+      <c r="B546" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="C546" s="1" t="str">
@@ -21785,10 +21805,10 @@
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="0" t="s">
+      <c r="A547" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B547" s="0" t="s">
+      <c r="B547" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="C547" s="1" t="str">
@@ -21797,10 +21817,10 @@
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="0" t="s">
+      <c r="A548" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B548" s="0" t="s">
+      <c r="B548" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="C548" s="1" t="str">
@@ -21809,10 +21829,10 @@
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="0" t="s">
+      <c r="A549" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B549" s="0" t="s">
+      <c r="B549" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C549" s="1" t="str">
@@ -21821,10 +21841,10 @@
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="0" t="s">
+      <c r="A550" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="B550" s="0" t="s">
+      <c r="B550" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="C550" s="1" t="str">
@@ -21833,10 +21853,10 @@
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="0" t="s">
+      <c r="A551" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B551" s="0" t="s">
+      <c r="B551" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="C551" s="1" t="str">
@@ -21845,10 +21865,10 @@
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="0" t="s">
+      <c r="A552" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B552" s="0" t="s">
+      <c r="B552" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="C552" s="1" t="str">
@@ -21857,10 +21877,10 @@
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="0" t="s">
+      <c r="A553" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B553" s="0" t="s">
+      <c r="B553" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="C553" s="1" t="str">
@@ -21869,10 +21889,10 @@
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="0" t="s">
+      <c r="A554" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="B554" s="0" t="s">
+      <c r="B554" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="C554" s="1" t="str">
@@ -21881,10 +21901,10 @@
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="0" t="s">
+      <c r="A555" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B555" s="0" t="s">
+      <c r="B555" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="C555" s="1" t="str">
@@ -21893,10 +21913,10 @@
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="0" t="s">
+      <c r="A556" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B556" s="0" t="s">
+      <c r="B556" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="C556" s="1" t="str">
@@ -21905,10 +21925,10 @@
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="0" t="s">
+      <c r="A557" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B557" s="0" t="s">
+      <c r="B557" s="1" t="s">
         <v>1202</v>
       </c>
       <c r="C557" s="1" t="str">
@@ -21917,10 +21937,10 @@
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="0" t="s">
+      <c r="A558" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B558" s="0" t="s">
+      <c r="B558" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="C558" s="1" t="str">
@@ -21929,10 +21949,10 @@
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="0" t="s">
+      <c r="A559" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B559" s="0" t="s">
+      <c r="B559" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="C559" s="1" t="str">
@@ -21941,10 +21961,10 @@
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="0" t="s">
+      <c r="A560" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="B560" s="0" t="s">
+      <c r="B560" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="C560" s="1" t="str">
@@ -21953,10 +21973,10 @@
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="0" t="s">
+      <c r="A561" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B561" s="0" t="s">
+      <c r="B561" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="C561" s="1" t="str">
@@ -21965,10 +21985,10 @@
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="0" t="s">
+      <c r="A562" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B562" s="0" t="s">
+      <c r="B562" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="C562" s="1" t="str">
@@ -21977,10 +21997,10 @@
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="0" t="s">
+      <c r="A563" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B563" s="0" t="s">
+      <c r="B563" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="C563" s="1" t="str">
@@ -21989,10 +22009,10 @@
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="0" t="s">
+      <c r="A564" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B564" s="0" t="s">
+      <c r="B564" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="C564" s="1" t="str">
@@ -22001,10 +22021,10 @@
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="0" t="s">
+      <c r="A565" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B565" s="0" t="s">
+      <c r="B565" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="C565" s="1" t="str">
@@ -22013,10 +22033,10 @@
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="0" t="s">
+      <c r="A566" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B566" s="0" t="s">
+      <c r="B566" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="C566" s="1" t="str">
@@ -22025,10 +22045,10 @@
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="0" t="s">
+      <c r="A567" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B567" s="0" t="s">
+      <c r="B567" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="C567" s="1" t="str">
@@ -22037,10 +22057,10 @@
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="0" t="s">
+      <c r="A568" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B568" s="0" t="s">
+      <c r="B568" s="1" t="s">
         <v>1150</v>
       </c>
       <c r="C568" s="1" t="str">
@@ -22049,10 +22069,10 @@
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="0" t="s">
+      <c r="A569" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B569" s="0" t="s">
+      <c r="B569" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="C569" s="1" t="str">
@@ -22061,10 +22081,10 @@
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="0" t="s">
+      <c r="A570" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B570" s="0" t="s">
+      <c r="B570" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="C570" s="1" t="str">
@@ -22073,10 +22093,10 @@
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="0" t="s">
+      <c r="A571" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B571" s="0" t="s">
+      <c r="B571" s="1" t="s">
         <v>1067</v>
       </c>
       <c r="C571" s="1" t="str">
@@ -22085,10 +22105,10 @@
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="0" t="s">
+      <c r="A572" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B572" s="0" t="s">
+      <c r="B572" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="C572" s="1" t="str">
@@ -22097,10 +22117,10 @@
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="0" t="s">
+      <c r="A573" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B573" s="0" t="s">
+      <c r="B573" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="C573" s="1" t="str">
@@ -22109,10 +22129,10 @@
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="0" t="s">
+      <c r="A574" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B574" s="0" t="s">
+      <c r="B574" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="C574" s="1" t="str">
@@ -22121,10 +22141,10 @@
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="0" t="s">
+      <c r="A575" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B575" s="0" t="s">
+      <c r="B575" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="C575" s="1" t="str">
@@ -22133,10 +22153,10 @@
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="0" t="s">
+      <c r="A576" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B576" s="0" t="s">
+      <c r="B576" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="C576" s="1" t="str">
@@ -22145,10 +22165,10 @@
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="0" t="s">
+      <c r="A577" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B577" s="0" t="s">
+      <c r="B577" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="C577" s="1" t="str">
@@ -22157,10 +22177,10 @@
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="0" t="s">
+      <c r="A578" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B578" s="0" t="s">
+      <c r="B578" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="C578" s="1" t="str">
@@ -22169,10 +22189,10 @@
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="0" t="s">
+      <c r="A579" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B579" s="0" t="s">
+      <c r="B579" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="C579" s="1" t="str">
@@ -22181,10 +22201,10 @@
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="0" t="s">
+      <c r="A580" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B580" s="0" t="s">
+      <c r="B580" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="C580" s="1" t="str">
@@ -22193,10 +22213,10 @@
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="0" t="s">
+      <c r="A581" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B581" s="0" t="s">
+      <c r="B581" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="C581" s="1" t="str">
@@ -22205,10 +22225,10 @@
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="0" t="s">
+      <c r="A582" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B582" s="0" t="s">
+      <c r="B582" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="C582" s="1" t="str">
@@ -22217,10 +22237,10 @@
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="0" t="s">
+      <c r="A583" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B583" s="0" t="s">
+      <c r="B583" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="C583" s="1" t="str">
@@ -22229,10 +22249,10 @@
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="0" t="s">
+      <c r="A584" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B584" s="0" t="s">
+      <c r="B584" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="C584" s="1" t="str">
@@ -22241,10 +22261,10 @@
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="0" t="s">
+      <c r="A585" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B585" s="0" t="s">
+      <c r="B585" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C585" s="1" t="str">
@@ -22253,10 +22273,10 @@
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="0" t="s">
+      <c r="A586" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B586" s="0" t="s">
+      <c r="B586" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="C586" s="1" t="str">
@@ -22265,10 +22285,10 @@
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="0" t="s">
+      <c r="A587" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B587" s="0" t="s">
+      <c r="B587" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="C587" s="1" t="str">
@@ -22277,10 +22297,10 @@
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="0" t="s">
+      <c r="A588" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B588" s="0" t="s">
+      <c r="B588" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="C588" s="1" t="str">
@@ -22289,10 +22309,10 @@
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="0" t="s">
+      <c r="A589" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B589" s="0" t="s">
+      <c r="B589" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="C589" s="1" t="str">
@@ -22301,10 +22321,10 @@
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="0" t="s">
+      <c r="A590" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B590" s="0" t="s">
+      <c r="B590" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="C590" s="1" t="str">
@@ -22313,10 +22333,10 @@
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="0" t="s">
+      <c r="A591" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B591" s="0" t="s">
+      <c r="B591" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="C591" s="1" t="str">
@@ -22325,10 +22345,10 @@
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="0" t="s">
+      <c r="A592" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B592" s="0" t="s">
+      <c r="B592" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="C592" s="1" t="str">
@@ -22337,10 +22357,10 @@
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="0" t="s">
+      <c r="A593" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B593" s="0" t="s">
+      <c r="B593" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="C593" s="1" t="str">
@@ -22349,10 +22369,10 @@
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="0" t="s">
+      <c r="A594" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B594" s="0" t="s">
+      <c r="B594" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="C594" s="1" t="str">
@@ -22361,10 +22381,10 @@
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="0" t="s">
+      <c r="A595" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B595" s="0" t="s">
+      <c r="B595" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="C595" s="1" t="str">
@@ -22373,10 +22393,10 @@
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="0" t="s">
+      <c r="A596" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B596" s="0" t="s">
+      <c r="B596" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="C596" s="1" t="str">
@@ -22385,10 +22405,10 @@
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="0" t="s">
+      <c r="A597" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B597" s="0" t="s">
+      <c r="B597" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="C597" s="1" t="str">
@@ -22397,10 +22417,10 @@
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="0" t="s">
+      <c r="A598" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B598" s="0" t="s">
+      <c r="B598" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="C598" s="1" t="str">
@@ -22409,10 +22429,10 @@
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="0" t="s">
+      <c r="A599" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B599" s="0" t="s">
+      <c r="B599" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="C599" s="1" t="str">
@@ -22421,10 +22441,10 @@
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="0" t="s">
+      <c r="A600" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="B600" s="0" t="s">
+      <c r="B600" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="C600" s="1" t="str">
@@ -22433,10 +22453,10 @@
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="0" t="s">
+      <c r="A601" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B601" s="0" t="s">
+      <c r="B601" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="C601" s="1" t="str">
@@ -22445,10 +22465,10 @@
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="0" t="s">
+      <c r="A602" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B602" s="0" t="s">
+      <c r="B602" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="C602" s="1" t="str">
@@ -22457,10 +22477,10 @@
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="0" t="s">
+      <c r="A603" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B603" s="0" t="s">
+      <c r="B603" s="1" t="s">
         <v>1202</v>
       </c>
       <c r="C603" s="1" t="str">
@@ -22469,10 +22489,10 @@
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="0" t="s">
+      <c r="A604" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B604" s="0" t="s">
+      <c r="B604" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="C604" s="1" t="str">
@@ -22481,10 +22501,10 @@
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="0" t="s">
+      <c r="A605" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="B605" s="0" t="s">
+      <c r="B605" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="C605" s="1" t="str">
@@ -22493,10 +22513,10 @@
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="0" t="s">
+      <c r="A606" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B606" s="0" t="s">
+      <c r="B606" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="C606" s="1" t="str">
@@ -22505,10 +22525,10 @@
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="0" t="s">
+      <c r="A607" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B607" s="0" t="s">
+      <c r="B607" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="C607" s="1" t="str">
@@ -22517,10 +22537,10 @@
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="0" t="s">
+      <c r="A608" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B608" s="0" t="s">
+      <c r="B608" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="C608" s="1" t="str">
@@ -22529,10 +22549,10 @@
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="0" t="s">
+      <c r="A609" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B609" s="0" t="s">
+      <c r="B609" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="C609" s="1" t="str">
@@ -22541,10 +22561,10 @@
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="0" t="s">
+      <c r="A610" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="B610" s="0" t="s">
+      <c r="B610" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="C610" s="1" t="str">
@@ -22553,10 +22573,10 @@
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="0" t="s">
+      <c r="A611" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="B611" s="0" t="s">
+      <c r="B611" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="C611" s="1" t="str">
@@ -22565,10 +22585,10 @@
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="0" t="s">
+      <c r="A612" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B612" s="0" t="s">
+      <c r="B612" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="C612" s="1" t="str">
@@ -22577,10 +22597,10 @@
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="0" t="s">
+      <c r="A613" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B613" s="0" t="s">
+      <c r="B613" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="C613" s="1" t="str">
@@ -22589,10 +22609,10 @@
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="0" t="s">
+      <c r="A614" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B614" s="0" t="s">
+      <c r="B614" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C614" s="1" t="str">
@@ -22601,10 +22621,10 @@
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="0" t="s">
+      <c r="A615" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B615" s="0" t="s">
+      <c r="B615" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="C615" s="1" t="str">
@@ -22613,10 +22633,10 @@
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="0" t="s">
+      <c r="A616" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B616" s="0" t="s">
+      <c r="B616" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="C616" s="1" t="str">
@@ -22625,10 +22645,10 @@
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="0" t="s">
+      <c r="A617" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B617" s="0" t="s">
+      <c r="B617" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="C617" s="1" t="str">
@@ -22637,10 +22657,10 @@
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="0" t="s">
+      <c r="A618" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B618" s="0" t="s">
+      <c r="B618" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C618" s="1" t="str">
@@ -22649,10 +22669,10 @@
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="0" t="s">
+      <c r="A619" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B619" s="0" t="s">
+      <c r="B619" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="C619" s="1" t="str">
@@ -22661,10 +22681,10 @@
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="0" t="s">
+      <c r="A620" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B620" s="0" t="s">
+      <c r="B620" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="C620" s="1" t="str">
@@ -22673,10 +22693,10 @@
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="0" t="s">
+      <c r="A621" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B621" s="0" t="s">
+      <c r="B621" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="C621" s="1" t="str">
@@ -22685,10 +22705,10 @@
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="0" t="s">
+      <c r="A622" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B622" s="0" t="s">
+      <c r="B622" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="C622" s="1" t="str">
@@ -22697,10 +22717,10 @@
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="0" t="s">
+      <c r="A623" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B623" s="0" t="s">
+      <c r="B623" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="C623" s="1" t="str">
@@ -22709,10 +22729,10 @@
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="0" t="s">
+      <c r="A624" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B624" s="0" t="s">
+      <c r="B624" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="C624" s="1" t="str">
@@ -22721,10 +22741,10 @@
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="0" t="s">
+      <c r="A625" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B625" s="0" t="s">
+      <c r="B625" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="C625" s="1" t="str">
@@ -22733,10 +22753,10 @@
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="0" t="s">
+      <c r="A626" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B626" s="0" t="s">
+      <c r="B626" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="C626" s="1" t="str">
@@ -22745,10 +22765,10 @@
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
+      <c r="A627" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B627" s="0" t="s">
+      <c r="B627" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="C627" s="1" t="str">
@@ -22757,10 +22777,10 @@
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="0" t="s">
+      <c r="A628" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B628" s="0" t="s">
+      <c r="B628" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="C628" s="1" t="str">
@@ -22769,10 +22789,10 @@
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="0" t="s">
+      <c r="A629" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B629" s="0" t="s">
+      <c r="B629" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="C629" s="1" t="str">
@@ -22781,10 +22801,10 @@
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="0" t="s">
+      <c r="A630" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B630" s="0" t="s">
+      <c r="B630" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="C630" s="1" t="str">
@@ -22793,10 +22813,10 @@
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
+      <c r="A631" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B631" s="0" t="s">
+      <c r="B631" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="C631" s="1" t="str">
@@ -22805,10 +22825,10 @@
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="0" t="s">
+      <c r="A632" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B632" s="0" t="s">
+      <c r="B632" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="C632" s="1" t="str">
@@ -22817,10 +22837,10 @@
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="0" t="s">
+      <c r="A633" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B633" s="0" t="s">
+      <c r="B633" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="C633" s="1" t="str">
@@ -22829,10 +22849,10 @@
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
+      <c r="A634" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B634" s="0" t="s">
+      <c r="B634" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="C634" s="1" t="str">
@@ -22841,10 +22861,10 @@
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="0" t="s">
+      <c r="A635" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B635" s="0" t="s">
+      <c r="B635" s="1" t="s">
         <v>1226</v>
       </c>
       <c r="C635" s="1" t="str">
@@ -22853,10 +22873,10 @@
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="0" t="s">
+      <c r="A636" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B636" s="0" t="s">
+      <c r="B636" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="C636" s="1" t="str">
@@ -22865,10 +22885,10 @@
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="0" t="s">
+      <c r="A637" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B637" s="0" t="s">
+      <c r="B637" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="C637" s="1" t="str">
@@ -22877,10 +22897,10 @@
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="0" t="s">
+      <c r="A638" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B638" s="0" t="s">
+      <c r="B638" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="C638" s="1" t="str">
@@ -22889,10 +22909,10 @@
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="0" t="s">
+      <c r="A639" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B639" s="0" t="s">
+      <c r="B639" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="C639" s="1" t="str">
@@ -22901,10 +22921,10 @@
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="0" t="s">
+      <c r="A640" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B640" s="0" t="s">
+      <c r="B640" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="C640" s="1" t="str">
@@ -22913,10 +22933,10 @@
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="0" t="s">
+      <c r="A641" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B641" s="0" t="s">
+      <c r="B641" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="C641" s="1" t="str">
@@ -22925,10 +22945,10 @@
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="0" t="s">
+      <c r="A642" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B642" s="0" t="s">
+      <c r="B642" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C642" s="1" t="str">
@@ -22937,10 +22957,10 @@
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="0" t="s">
+      <c r="A643" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="B643" s="0" t="s">
+      <c r="B643" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="C643" s="1" t="str">
@@ -22949,10 +22969,10 @@
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="0" t="s">
+      <c r="A644" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B644" s="0" t="s">
+      <c r="B644" s="1" t="s">
         <v>1181</v>
       </c>
       <c r="C644" s="1" t="str">
@@ -22961,10 +22981,10 @@
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="0" t="s">
+      <c r="A645" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B645" s="0" t="s">
+      <c r="B645" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="C645" s="1" t="str">
@@ -22973,10 +22993,10 @@
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="0" t="s">
+      <c r="A646" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B646" s="0" t="s">
+      <c r="B646" s="1" t="s">
         <v>1181</v>
       </c>
       <c r="C646" s="1" t="str">
@@ -22985,10 +23005,10 @@
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="0" t="s">
+      <c r="A647" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B647" s="0" t="s">
+      <c r="B647" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="C647" s="1" t="str">
@@ -22997,10 +23017,10 @@
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="0" t="s">
+      <c r="A648" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="B648" s="0" t="s">
+      <c r="B648" s="1" t="s">
         <v>1202</v>
       </c>
       <c r="C648" s="1" t="str">
@@ -23009,10 +23029,10 @@
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="0" t="s">
+      <c r="A649" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B649" s="0" t="s">
+      <c r="B649" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="C649" s="1" t="str">
@@ -23021,10 +23041,10 @@
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="0" t="s">
+      <c r="A650" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B650" s="0" t="s">
+      <c r="B650" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="C650" s="1" t="str">
@@ -23033,10 +23053,10 @@
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="0" t="s">
+      <c r="A651" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="B651" s="0" t="s">
+      <c r="B651" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="C651" s="1" t="str">
@@ -23045,10 +23065,10 @@
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="0" t="s">
+      <c r="A652" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="B652" s="0" t="s">
+      <c r="B652" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="C652" s="1" t="str">
@@ -23057,10 +23077,10 @@
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="0" t="s">
+      <c r="A653" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B653" s="0" t="s">
+      <c r="B653" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="C653" s="1" t="str">
@@ -23069,10 +23089,10 @@
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="0" t="s">
+      <c r="A654" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B654" s="0" t="s">
+      <c r="B654" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="C654" s="1" t="str">
@@ -23081,10 +23101,10 @@
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="0" t="s">
+      <c r="A655" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="B655" s="0" t="s">
+      <c r="B655" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="C655" s="1" t="str">
@@ -23093,10 +23113,10 @@
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="0" t="s">
+      <c r="A656" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B656" s="0" t="s">
+      <c r="B656" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="C656" s="1" t="str">
@@ -23105,10 +23125,10 @@
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="0" t="s">
+      <c r="A657" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B657" s="0" t="s">
+      <c r="B657" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="C657" s="1" t="str">
@@ -23117,10 +23137,10 @@
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="0" t="s">
+      <c r="A658" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B658" s="0" t="s">
+      <c r="B658" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="C658" s="1" t="str">
@@ -23129,10 +23149,10 @@
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="0" t="s">
+      <c r="A659" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B659" s="0" t="s">
+      <c r="B659" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="C659" s="1" t="str">
@@ -23141,10 +23161,10 @@
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="0" t="s">
+      <c r="A660" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B660" s="0" t="s">
+      <c r="B660" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="C660" s="1" t="str">
@@ -23153,10 +23173,10 @@
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="0" t="s">
+      <c r="A661" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="B661" s="0" t="s">
+      <c r="B661" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="C661" s="1" t="str">
@@ -23165,10 +23185,10 @@
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="0" t="s">
+      <c r="A662" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B662" s="0" t="s">
+      <c r="B662" s="1" t="s">
         <v>1298</v>
       </c>
       <c r="C662" s="1" t="str">
@@ -23177,10 +23197,10 @@
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="0" t="s">
+      <c r="A663" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B663" s="0" t="s">
+      <c r="B663" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C663" s="1" t="str">
@@ -23189,10 +23209,10 @@
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="0" t="s">
+      <c r="A664" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B664" s="0" t="s">
+      <c r="B664" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="C664" s="1" t="str">
@@ -23201,10 +23221,10 @@
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="0" t="s">
+      <c r="A665" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B665" s="0" t="s">
+      <c r="B665" s="1" t="s">
         <v>1073</v>
       </c>
       <c r="C665" s="1" t="str">
@@ -23213,10 +23233,10 @@
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="0" t="s">
+      <c r="A666" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B666" s="0" t="s">
+      <c r="B666" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="C666" s="1" t="str">
@@ -23225,10 +23245,10 @@
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="0" t="s">
+      <c r="A667" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="B667" s="0" t="s">
+      <c r="B667" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="C667" s="1" t="str">
@@ -23237,10 +23257,10 @@
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="0" t="s">
+      <c r="A668" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B668" s="0" t="s">
+      <c r="B668" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="C668" s="1" t="str">
@@ -23249,10 +23269,10 @@
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="0" t="s">
+      <c r="A669" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="B669" s="0" t="s">
+      <c r="B669" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="C669" s="1" t="str">
@@ -23261,10 +23281,10 @@
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="0" t="s">
+      <c r="A670" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="B670" s="0" t="s">
+      <c r="B670" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="C670" s="1" t="str">
@@ -23273,10 +23293,10 @@
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="0" t="s">
+      <c r="A671" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B671" s="0" t="s">
+      <c r="B671" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="C671" s="1" t="str">
@@ -23285,10 +23305,10 @@
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="0" t="s">
+      <c r="A672" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B672" s="0" t="s">
+      <c r="B672" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="C672" s="1" t="str">
@@ -23297,10 +23317,10 @@
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="0" t="s">
+      <c r="A673" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B673" s="0" t="s">
+      <c r="B673" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="C673" s="1" t="str">
@@ -23309,10 +23329,10 @@
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="0" t="s">
+      <c r="A674" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B674" s="0" t="s">
+      <c r="B674" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C674" s="1" t="str">
@@ -23321,10 +23341,10 @@
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="0" t="s">
+      <c r="A675" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B675" s="0" t="s">
+      <c r="B675" s="1" t="s">
         <v>1067</v>
       </c>
       <c r="C675" s="1" t="str">
@@ -23333,10 +23353,10 @@
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="0" t="s">
+      <c r="A676" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B676" s="0" t="s">
+      <c r="B676" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="C676" s="1" t="str">
@@ -23345,10 +23365,10 @@
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="0" t="s">
+      <c r="A677" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B677" s="0" t="s">
+      <c r="B677" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="C677" s="1" t="str">
@@ -23357,10 +23377,10 @@
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="0" t="s">
+      <c r="A678" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B678" s="0" t="s">
+      <c r="B678" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="C678" s="1" t="str">
@@ -23369,10 +23389,10 @@
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="0" t="s">
+      <c r="A679" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B679" s="0" t="s">
+      <c r="B679" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="C679" s="1" t="str">
@@ -23381,10 +23401,10 @@
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="0" t="s">
+      <c r="A680" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B680" s="0" t="s">
+      <c r="B680" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="C680" s="1" t="str">
@@ -23393,10 +23413,10 @@
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="0" t="s">
+      <c r="A681" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B681" s="0" t="s">
+      <c r="B681" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="C681" s="1" t="str">
@@ -23405,10 +23425,10 @@
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="0" t="s">
+      <c r="A682" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B682" s="0" t="s">
+      <c r="B682" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="C682" s="1" t="str">
@@ -23417,10 +23437,10 @@
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="0" t="s">
+      <c r="A683" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B683" s="0" t="s">
+      <c r="B683" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="C683" s="1" t="str">
@@ -23429,10 +23449,10 @@
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="0" t="s">
+      <c r="A684" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B684" s="0" t="s">
+      <c r="B684" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="C684" s="1" t="str">
@@ -23441,10 +23461,10 @@
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="0" t="s">
+      <c r="A685" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B685" s="0" t="s">
+      <c r="B685" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="C685" s="1" t="str">
@@ -23453,10 +23473,10 @@
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="0" t="s">
+      <c r="A686" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B686" s="0" t="s">
+      <c r="B686" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="C686" s="1" t="str">
@@ -23465,10 +23485,10 @@
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="0" t="s">
+      <c r="A687" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B687" s="0" t="s">
+      <c r="B687" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="C687" s="1" t="str">
@@ -23477,10 +23497,10 @@
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="0" t="s">
+      <c r="A688" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="B688" s="0" t="s">
+      <c r="B688" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="C688" s="1" t="str">
@@ -23489,10 +23509,10 @@
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="0" t="s">
+      <c r="A689" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B689" s="0" t="s">
+      <c r="B689" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C689" s="1" t="str">
@@ -23501,10 +23521,10 @@
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="0" t="s">
+      <c r="A690" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B690" s="0" t="s">
+      <c r="B690" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="C690" s="1" t="str">
@@ -23513,10 +23533,10 @@
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="0" t="s">
+      <c r="A691" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B691" s="0" t="s">
+      <c r="B691" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="C691" s="1" t="str">
@@ -23525,10 +23545,10 @@
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="0" t="s">
+      <c r="A692" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B692" s="0" t="s">
+      <c r="B692" s="1" t="s">
         <v>1255</v>
       </c>
       <c r="C692" s="1" t="str">
@@ -23537,10 +23557,10 @@
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="0" t="s">
+      <c r="A693" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B693" s="0" t="s">
+      <c r="B693" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="C693" s="1" t="str">
@@ -23549,10 +23569,10 @@
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="0" t="s">
+      <c r="A694" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B694" s="0" t="s">
+      <c r="B694" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="C694" s="1" t="str">
@@ -23561,10 +23581,10 @@
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="0" t="s">
+      <c r="A695" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B695" s="0" t="s">
+      <c r="B695" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="C695" s="1" t="str">
@@ -23573,10 +23593,10 @@
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="0" t="s">
+      <c r="A696" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B696" s="0" t="s">
+      <c r="B696" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="C696" s="1" t="str">
@@ -23585,10 +23605,10 @@
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="0" t="s">
+      <c r="A697" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="B697" s="0" t="s">
+      <c r="B697" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="C697" s="1" t="str">
@@ -23597,10 +23617,10 @@
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="0" t="s">
+      <c r="A698" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="B698" s="0" t="s">
+      <c r="B698" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="C698" s="1" t="str">
@@ -23609,10 +23629,10 @@
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="0" t="s">
+      <c r="A699" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B699" s="0" t="s">
+      <c r="B699" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="C699" s="1" t="str">
@@ -23621,10 +23641,10 @@
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="0" t="s">
+      <c r="A700" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B700" s="0" t="s">
+      <c r="B700" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="C700" s="1" t="str">
@@ -23633,10 +23653,10 @@
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="0" t="s">
+      <c r="A701" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B701" s="0" t="s">
+      <c r="B701" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="C701" s="1" t="str">
@@ -23645,10 +23665,10 @@
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="0" t="s">
+      <c r="A702" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B702" s="0" t="s">
+      <c r="B702" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="C702" s="1" t="str">
@@ -23657,10 +23677,10 @@
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="0" t="s">
+      <c r="A703" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B703" s="0" t="s">
+      <c r="B703" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="C703" s="1" t="str">
@@ -23669,10 +23689,10 @@
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="0" t="s">
+      <c r="A704" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B704" s="0" t="s">
+      <c r="B704" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="C704" s="1" t="str">
@@ -23681,10 +23701,10 @@
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="0" t="s">
+      <c r="A705" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B705" s="0" t="s">
+      <c r="B705" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="C705" s="1" t="str">
@@ -23693,10 +23713,10 @@
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="0" t="s">
+      <c r="A706" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B706" s="0" t="s">
+      <c r="B706" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="C706" s="1" t="str">
@@ -23705,10 +23725,10 @@
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="0" t="s">
+      <c r="A707" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B707" s="0" t="s">
+      <c r="B707" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="C707" s="1" t="str">
@@ -23717,10 +23737,10 @@
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="0" t="s">
+      <c r="A708" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B708" s="0" t="s">
+      <c r="B708" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="C708" s="1" t="str">
@@ -23729,10 +23749,10 @@
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="0" t="s">
+      <c r="A709" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B709" s="0" t="s">
+      <c r="B709" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="C709" s="1" t="str">
@@ -23741,10 +23761,10 @@
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="0" t="s">
+      <c r="A710" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B710" s="0" t="s">
+      <c r="B710" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="C710" s="1" t="str">
@@ -23753,10 +23773,10 @@
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="0" t="s">
+      <c r="A711" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B711" s="0" t="s">
+      <c r="B711" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="C711" s="1" t="str">
@@ -23765,10 +23785,10 @@
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="0" t="s">
+      <c r="A712" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B712" s="0" t="s">
+      <c r="B712" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C712" s="1" t="str">
@@ -23777,10 +23797,10 @@
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="0" t="s">
+      <c r="A713" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="B713" s="0" t="s">
+      <c r="B713" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C713" s="1" t="str">
@@ -23789,10 +23809,10 @@
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="0" t="s">
+      <c r="A714" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B714" s="0" t="s">
+      <c r="B714" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="C714" s="1" t="str">
@@ -23801,10 +23821,10 @@
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="0" t="s">
+      <c r="A715" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B715" s="0" t="s">
+      <c r="B715" s="1" t="s">
         <v>1192</v>
       </c>
       <c r="C715" s="1" t="str">
@@ -23813,10 +23833,10 @@
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="0" t="s">
+      <c r="A716" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B716" s="0" t="s">
+      <c r="B716" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="C716" s="1" t="str">
@@ -23825,10 +23845,10 @@
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="0" t="s">
+      <c r="A717" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B717" s="0" t="s">
+      <c r="B717" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="C717" s="1" t="str">
@@ -23837,10 +23857,10 @@
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="0" t="s">
+      <c r="A718" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B718" s="0" t="s">
+      <c r="B718" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="C718" s="1" t="str">
@@ -23849,10 +23869,10 @@
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="0" t="s">
+      <c r="A719" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B719" s="0" t="s">
+      <c r="B719" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="C719" s="1" t="str">
@@ -23861,10 +23881,10 @@
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="0" t="s">
+      <c r="A720" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B720" s="0" t="s">
+      <c r="B720" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="C720" s="1" t="str">
@@ -23873,10 +23893,10 @@
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="0" t="s">
+      <c r="A721" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="B721" s="0" t="s">
+      <c r="B721" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="C721" s="1" t="str">
@@ -23885,10 +23905,10 @@
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="0" t="s">
+      <c r="A722" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B722" s="0" t="s">
+      <c r="B722" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="C722" s="1" t="str">
@@ -23897,10 +23917,10 @@
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="0" t="s">
+      <c r="A723" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B723" s="0" t="s">
+      <c r="B723" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="C723" s="1" t="str">
@@ -23909,10 +23929,10 @@
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="0" t="s">
+      <c r="A724" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B724" s="0" t="s">
+      <c r="B724" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="C724" s="1" t="str">
@@ -23921,10 +23941,10 @@
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="0" t="s">
+      <c r="A725" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B725" s="0" t="s">
+      <c r="B725" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="C725" s="1" t="str">
@@ -23933,10 +23953,10 @@
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="0" t="s">
+      <c r="A726" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B726" s="0" t="s">
+      <c r="B726" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="C726" s="1" t="str">
@@ -23945,10 +23965,10 @@
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="0" t="s">
+      <c r="A727" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B727" s="0" t="s">
+      <c r="B727" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="C727" s="1" t="str">
@@ -23957,10 +23977,10 @@
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="0" t="s">
+      <c r="A728" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B728" s="0" t="s">
+      <c r="B728" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="C728" s="1" t="str">
@@ -23969,10 +23989,10 @@
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="0" t="s">
+      <c r="A729" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B729" s="0" t="s">
+      <c r="B729" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="C729" s="1" t="str">
@@ -23981,10 +24001,10 @@
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="0" t="s">
+      <c r="A730" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B730" s="0" t="s">
+      <c r="B730" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="C730" s="1" t="str">
@@ -23993,10 +24013,10 @@
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="0" t="s">
+      <c r="A731" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B731" s="0" t="s">
+      <c r="B731" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="C731" s="1" t="str">
@@ -24005,10 +24025,10 @@
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="0" t="s">
+      <c r="A732" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B732" s="0" t="s">
+      <c r="B732" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="C732" s="1" t="str">
@@ -24017,10 +24037,10 @@
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="0" t="s">
+      <c r="A733" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="B733" s="0" t="s">
+      <c r="B733" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="C733" s="1" t="str">
@@ -24029,10 +24049,10 @@
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="0" t="s">
+      <c r="A734" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="B734" s="0" t="s">
+      <c r="B734" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="C734" s="1" t="str">
@@ -24041,10 +24061,10 @@
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="0" t="s">
+      <c r="A735" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B735" s="0" t="s">
+      <c r="B735" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="C735" s="1" t="str">
@@ -24053,10 +24073,10 @@
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="0" t="s">
+      <c r="A736" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B736" s="0" t="s">
+      <c r="B736" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="C736" s="1" t="str">
@@ -24065,10 +24085,10 @@
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="0" t="s">
+      <c r="A737" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B737" s="0" t="s">
+      <c r="B737" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C737" s="1" t="str">
@@ -24077,10 +24097,10 @@
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="0" t="s">
+      <c r="A738" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="B738" s="0" t="s">
+      <c r="B738" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C738" s="1" t="str">
@@ -24089,10 +24109,10 @@
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="0" t="s">
+      <c r="A739" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B739" s="0" t="s">
+      <c r="B739" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C739" s="1" t="str">
@@ -24101,10 +24121,10 @@
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="0" t="s">
+      <c r="A740" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B740" s="0" t="s">
+      <c r="B740" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="C740" s="1" t="str">
@@ -24113,10 +24133,10 @@
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="0" t="s">
+      <c r="A741" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B741" s="0" t="s">
+      <c r="B741" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="C741" s="1" t="str">
@@ -24125,10 +24145,10 @@
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="0" t="s">
+      <c r="A742" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B742" s="0" t="s">
+      <c r="B742" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="C742" s="1" t="str">
@@ -24137,10 +24157,10 @@
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="0" t="s">
+      <c r="A743" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B743" s="0" t="s">
+      <c r="B743" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="C743" s="1" t="str">
@@ -24149,10 +24169,10 @@
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="0" t="s">
+      <c r="A744" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B744" s="0" t="s">
+      <c r="B744" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="C744" s="1" t="str">
@@ -24161,10 +24181,10 @@
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="0" t="s">
+      <c r="A745" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B745" s="0" t="s">
+      <c r="B745" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="C745" s="1" t="str">
@@ -24173,10 +24193,10 @@
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="0" t="s">
+      <c r="A746" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B746" s="0" t="s">
+      <c r="B746" s="1" t="s">
         <v>1276</v>
       </c>
       <c r="C746" s="1" t="str">
@@ -24185,10 +24205,10 @@
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="0" t="s">
+      <c r="A747" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B747" s="0" t="s">
+      <c r="B747" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="C747" s="1" t="str">
@@ -24197,10 +24217,10 @@
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="0" t="s">
+      <c r="A748" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="B748" s="0" t="s">
+      <c r="B748" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C748" s="1" t="str">
@@ -24209,10 +24229,10 @@
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="0" t="s">
+      <c r="A749" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B749" s="0" t="s">
+      <c r="B749" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="C749" s="1" t="str">
@@ -24221,10 +24241,10 @@
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="0" t="s">
+      <c r="A750" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="B750" s="0" t="s">
+      <c r="B750" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="C750" s="1" t="str">
@@ -24233,10 +24253,10 @@
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="0" t="s">
+      <c r="A751" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B751" s="0" t="s">
+      <c r="B751" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="C751" s="1" t="str">
@@ -24245,10 +24265,10 @@
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="0" t="s">
+      <c r="A752" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B752" s="0" t="s">
+      <c r="B752" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="C752" s="1" t="str">
@@ -24257,10 +24277,10 @@
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="0" t="s">
+      <c r="A753" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B753" s="0" t="s">
+      <c r="B753" s="1" t="s">
         <v>1226</v>
       </c>
       <c r="C753" s="1" t="str">
@@ -24269,10 +24289,10 @@
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="0" t="s">
+      <c r="A754" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B754" s="0" t="s">
+      <c r="B754" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="C754" s="1" t="str">
@@ -24281,10 +24301,10 @@
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="0" t="s">
+      <c r="A755" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B755" s="0" t="s">
+      <c r="B755" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="C755" s="1" t="str">
@@ -24293,10 +24313,10 @@
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="0" t="s">
+      <c r="A756" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B756" s="0" t="s">
+      <c r="B756" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="C756" s="1" t="str">
@@ -24305,10 +24325,10 @@
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="0" t="s">
+      <c r="A757" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B757" s="0" t="s">
+      <c r="B757" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="C757" s="1" t="str">
@@ -24317,10 +24337,10 @@
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="0" t="s">
+      <c r="A758" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B758" s="0" t="s">
+      <c r="B758" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="C758" s="1" t="str">
@@ -24329,10 +24349,10 @@
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="0" t="s">
+      <c r="A759" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B759" s="0" t="s">
+      <c r="B759" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="C759" s="1" t="str">
@@ -24341,10 +24361,10 @@
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="0" t="s">
+      <c r="A760" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B760" s="0" t="s">
+      <c r="B760" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="C760" s="1" t="str">
@@ -24353,10 +24373,10 @@
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="0" t="s">
+      <c r="A761" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B761" s="0" t="s">
+      <c r="B761" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="C761" s="1" t="str">
@@ -24365,10 +24385,10 @@
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="0" t="s">
+      <c r="A762" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B762" s="0" t="s">
+      <c r="B762" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C762" s="1" t="str">
@@ -24377,10 +24397,10 @@
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="0" t="s">
+      <c r="A763" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B763" s="0" t="s">
+      <c r="B763" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="C763" s="1" t="str">
@@ -24389,10 +24409,10 @@
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="0" t="s">
+      <c r="A764" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B764" s="0" t="s">
+      <c r="B764" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="C764" s="1" t="str">
@@ -24401,10 +24421,10 @@
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="0" t="s">
+      <c r="A765" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B765" s="0" t="s">
+      <c r="B765" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="C765" s="1" t="str">
@@ -24413,10 +24433,10 @@
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="0" t="s">
+      <c r="A766" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B766" s="0" t="s">
+      <c r="B766" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="C766" s="1" t="str">
@@ -24425,10 +24445,10 @@
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="0" t="s">
+      <c r="A767" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B767" s="0" t="s">
+      <c r="B767" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="C767" s="1" t="str">
@@ -24437,10 +24457,10 @@
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="0" t="s">
+      <c r="A768" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="B768" s="0" t="s">
+      <c r="B768" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="C768" s="1" t="str">
@@ -24449,10 +24469,10 @@
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="0" t="s">
+      <c r="A769" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B769" s="0" t="s">
+      <c r="B769" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="C769" s="1" t="str">
@@ -24461,10 +24481,10 @@
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="0" t="s">
+      <c r="A770" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B770" s="0" t="s">
+      <c r="B770" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C770" s="1" t="str">
@@ -24473,10 +24493,10 @@
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="0" t="s">
+      <c r="A771" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B771" s="0" t="s">
+      <c r="B771" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C771" s="1" t="str">
@@ -24485,10 +24505,10 @@
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="0" t="s">
+      <c r="A772" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B772" s="0" t="s">
+      <c r="B772" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="C772" s="1" t="str">
@@ -24497,10 +24517,10 @@
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="0" t="s">
+      <c r="A773" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B773" s="0" t="s">
+      <c r="B773" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="C773" s="1" t="str">
@@ -24509,10 +24529,10 @@
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="0" t="s">
+      <c r="A774" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B774" s="0" t="s">
+      <c r="B774" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="C774" s="1" t="str">
@@ -24521,10 +24541,10 @@
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="0" t="s">
+      <c r="A775" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="B775" s="0" t="s">
+      <c r="B775" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="C775" s="1" t="str">
@@ -24533,10 +24553,10 @@
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="0" t="s">
+      <c r="A776" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B776" s="0" t="s">
+      <c r="B776" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="C776" s="1" t="str">
@@ -24545,10 +24565,10 @@
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="0" t="s">
+      <c r="A777" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B777" s="0" t="s">
+      <c r="B777" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="C777" s="1" t="str">
@@ -24557,10 +24577,10 @@
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="0" t="s">
+      <c r="A778" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B778" s="0" t="s">
+      <c r="B778" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C778" s="1" t="str">
@@ -24569,10 +24589,10 @@
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="0" t="s">
+      <c r="A779" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B779" s="0" t="s">
+      <c r="B779" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="C779" s="1" t="str">
@@ -24581,10 +24601,10 @@
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="0" t="s">
+      <c r="A780" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="B780" s="0" t="s">
+      <c r="B780" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="C780" s="1" t="str">
@@ -24593,10 +24613,10 @@
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="0" t="s">
+      <c r="A781" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B781" s="0" t="s">
+      <c r="B781" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="C781" s="1" t="str">
@@ -24605,10 +24625,10 @@
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="0" t="s">
+      <c r="A782" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B782" s="0" t="s">
+      <c r="B782" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="C782" s="1" t="str">
@@ -24617,10 +24637,10 @@
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="0" t="s">
+      <c r="A783" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B783" s="0" t="s">
+      <c r="B783" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="C783" s="1" t="str">
@@ -24629,10 +24649,10 @@
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="0" t="s">
+      <c r="A784" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B784" s="0" t="s">
+      <c r="B784" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="C784" s="1" t="str">
@@ -24641,10 +24661,10 @@
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="0" t="s">
+      <c r="A785" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B785" s="0" t="s">
+      <c r="B785" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="C785" s="1" t="str">
@@ -24653,10 +24673,10 @@
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="0" t="s">
+      <c r="A786" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B786" s="0" t="s">
+      <c r="B786" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="C786" s="1" t="str">
@@ -24665,10 +24685,10 @@
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="0" t="s">
+      <c r="A787" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B787" s="0" t="s">
+      <c r="B787" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="C787" s="1" t="str">
@@ -24677,10 +24697,10 @@
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="0" t="s">
+      <c r="A788" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="B788" s="0" t="s">
+      <c r="B788" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="C788" s="1" t="str">
@@ -24689,10 +24709,10 @@
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="0" t="s">
+      <c r="A789" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B789" s="0" t="s">
+      <c r="B789" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C789" s="1" t="str">
@@ -24701,10 +24721,10 @@
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="0" t="s">
+      <c r="A790" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B790" s="0" t="s">
+      <c r="B790" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="C790" s="1" t="str">
@@ -24713,10 +24733,10 @@
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="0" t="s">
+      <c r="A791" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B791" s="0" t="s">
+      <c r="B791" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="C791" s="1" t="str">
@@ -24725,10 +24745,10 @@
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="0" t="s">
+      <c r="A792" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B792" s="0" t="s">
+      <c r="B792" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="C792" s="1" t="str">
@@ -24737,10 +24757,10 @@
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="0" t="s">
+      <c r="A793" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B793" s="0" t="s">
+      <c r="B793" s="1" t="s">
         <v>1300</v>
       </c>
       <c r="C793" s="1" t="str">
@@ -24749,10 +24769,10 @@
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="0" t="s">
+      <c r="A794" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B794" s="0" t="s">
+      <c r="B794" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="C794" s="1" t="str">
@@ -24761,10 +24781,10 @@
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="0" t="s">
+      <c r="A795" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B795" s="0" t="s">
+      <c r="B795" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="C795" s="1" t="str">
@@ -24773,10 +24793,10 @@
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="0" t="s">
+      <c r="A796" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B796" s="0" t="s">
+      <c r="B796" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="C796" s="1" t="str">
@@ -24785,10 +24805,10 @@
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="0" t="s">
+      <c r="A797" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B797" s="0" t="s">
+      <c r="B797" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="C797" s="1" t="str">
@@ -24797,10 +24817,10 @@
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="0" t="s">
+      <c r="A798" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B798" s="0" t="s">
+      <c r="B798" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="C798" s="1" t="str">
@@ -24809,10 +24829,10 @@
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="0" t="s">
+      <c r="A799" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B799" s="0" t="s">
+      <c r="B799" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="C799" s="1" t="str">
@@ -24821,10 +24841,10 @@
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="0" t="s">
+      <c r="A800" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="B800" s="0" t="s">
+      <c r="B800" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="C800" s="1" t="str">
@@ -24833,10 +24853,10 @@
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="0" t="s">
+      <c r="A801" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B801" s="0" t="s">
+      <c r="B801" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="C801" s="1" t="str">
@@ -24845,10 +24865,10 @@
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="0" t="s">
+      <c r="A802" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B802" s="0" t="s">
+      <c r="B802" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="C802" s="1" t="str">
@@ -24857,10 +24877,10 @@
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="0" t="s">
+      <c r="A803" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B803" s="0" t="s">
+      <c r="B803" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="C803" s="1" t="str">
@@ -24869,10 +24889,10 @@
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="0" t="s">
+      <c r="A804" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B804" s="0" t="s">
+      <c r="B804" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="C804" s="1" t="str">
@@ -24881,10 +24901,10 @@
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="0" t="s">
+      <c r="A805" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B805" s="0" t="s">
+      <c r="B805" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="C805" s="1" t="str">
@@ -24893,10 +24913,10 @@
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="0" t="s">
+      <c r="A806" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B806" s="0" t="s">
+      <c r="B806" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="C806" s="1" t="str">
@@ -24905,10 +24925,10 @@
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="0" t="s">
+      <c r="A807" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B807" s="0" t="s">
+      <c r="B807" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="C807" s="1" t="str">
@@ -24917,10 +24937,10 @@
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="0" t="s">
+      <c r="A808" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B808" s="0" t="s">
+      <c r="B808" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="C808" s="1" t="str">
@@ -24929,10 +24949,10 @@
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="0" t="s">
+      <c r="A809" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B809" s="0" t="s">
+      <c r="B809" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="C809" s="1" t="str">
@@ -24941,10 +24961,10 @@
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="0" t="s">
+      <c r="A810" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B810" s="0" t="s">
+      <c r="B810" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="C810" s="1" t="str">
@@ -24953,10 +24973,10 @@
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="0" t="s">
+      <c r="A811" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="B811" s="0" t="s">
+      <c r="B811" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C811" s="1" t="str">
@@ -24965,10 +24985,10 @@
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="0" t="s">
+      <c r="A812" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B812" s="0" t="s">
+      <c r="B812" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="C812" s="1" t="str">
@@ -24977,10 +24997,10 @@
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="0" t="s">
+      <c r="A813" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B813" s="0" t="s">
+      <c r="B813" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="C813" s="1" t="str">
@@ -24989,10 +25009,10 @@
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="0" t="s">
+      <c r="A814" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B814" s="0" t="s">
+      <c r="B814" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="C814" s="1" t="str">
@@ -25001,10 +25021,10 @@
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="0" t="s">
+      <c r="A815" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B815" s="0" t="s">
+      <c r="B815" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="C815" s="1" t="str">
@@ -25013,10 +25033,10 @@
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="0" t="s">
+      <c r="A816" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B816" s="0" t="s">
+      <c r="B816" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="C816" s="1" t="str">
@@ -25025,10 +25045,10 @@
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="0" t="s">
+      <c r="A817" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B817" s="0" t="s">
+      <c r="B817" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="C817" s="1" t="str">
@@ -25037,10 +25057,10 @@
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="0" t="s">
+      <c r="A818" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B818" s="0" t="s">
+      <c r="B818" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="C818" s="1" t="str">
@@ -25049,10 +25069,10 @@
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="0" t="s">
+      <c r="A819" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B819" s="0" t="s">
+      <c r="B819" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="C819" s="1" t="str">
@@ -25061,10 +25081,10 @@
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="0" t="s">
+      <c r="A820" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B820" s="0" t="s">
+      <c r="B820" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="C820" s="1" t="str">
@@ -25073,10 +25093,10 @@
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="0" t="s">
+      <c r="A821" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B821" s="0" t="s">
+      <c r="B821" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="C821" s="1" t="str">
@@ -25085,10 +25105,10 @@
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="0" t="s">
+      <c r="A822" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B822" s="0" t="s">
+      <c r="B822" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C822" s="1" t="str">
@@ -25097,10 +25117,10 @@
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="0" t="s">
+      <c r="A823" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B823" s="0" t="s">
+      <c r="B823" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="C823" s="1" t="str">
@@ -25109,10 +25129,10 @@
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="0" t="s">
+      <c r="A824" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B824" s="0" t="s">
+      <c r="B824" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="C824" s="1" t="str">
@@ -25121,10 +25141,10 @@
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="0" t="s">
+      <c r="A825" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="B825" s="0" t="s">
+      <c r="B825" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="C825" s="1" t="str">
@@ -25133,10 +25153,10 @@
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="0" t="s">
+      <c r="A826" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="B826" s="0" t="s">
+      <c r="B826" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="C826" s="1" t="str">
@@ -25145,10 +25165,10 @@
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="0" t="s">
+      <c r="A827" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B827" s="0" t="s">
+      <c r="B827" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="C827" s="1" t="str">
@@ -25157,10 +25177,10 @@
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="0" t="s">
+      <c r="A828" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B828" s="0" t="s">
+      <c r="B828" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="C828" s="1" t="str">
@@ -25169,10 +25189,10 @@
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="0" t="s">
+      <c r="A829" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="B829" s="0" t="s">
+      <c r="B829" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="C829" s="1" t="str">
@@ -25181,10 +25201,10 @@
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="0" t="s">
+      <c r="A830" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="B830" s="0" t="s">
+      <c r="B830" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="C830" s="1" t="str">
@@ -25193,10 +25213,10 @@
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="0" t="s">
+      <c r="A831" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B831" s="0" t="s">
+      <c r="B831" s="1" t="s">
         <v>1192</v>
       </c>
       <c r="C831" s="1" t="str">
@@ -25205,10 +25225,10 @@
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="0" t="s">
+      <c r="A832" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B832" s="0" t="s">
+      <c r="B832" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="C832" s="1" t="str">
@@ -25217,10 +25237,10 @@
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="0" t="s">
+      <c r="A833" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B833" s="0" t="s">
+      <c r="B833" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="C833" s="1" t="str">
@@ -25229,10 +25249,10 @@
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="0" t="s">
+      <c r="A834" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B834" s="0" t="s">
+      <c r="B834" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="C834" s="1" t="str">
@@ -25241,10 +25261,10 @@
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="0" t="s">
+      <c r="A835" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B835" s="0" t="s">
+      <c r="B835" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C835" s="1" t="str">
@@ -25253,10 +25273,10 @@
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="0" t="s">
+      <c r="A836" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B836" s="0" t="s">
+      <c r="B836" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="C836" s="1" t="str">
@@ -25265,10 +25285,10 @@
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="0" t="s">
+      <c r="A837" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B837" s="0" t="s">
+      <c r="B837" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="C837" s="1" t="str">
@@ -25277,10 +25297,10 @@
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="0" t="s">
+      <c r="A838" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B838" s="0" t="s">
+      <c r="B838" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="C838" s="1" t="str">
@@ -25289,10 +25309,10 @@
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="0" t="s">
+      <c r="A839" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B839" s="0" t="s">
+      <c r="B839" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="C839" s="1" t="str">
@@ -25301,10 +25321,10 @@
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="0" t="s">
+      <c r="A840" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B840" s="0" t="s">
+      <c r="B840" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="C840" s="1" t="str">
@@ -25313,10 +25333,10 @@
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="0" t="s">
+      <c r="A841" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B841" s="0" t="s">
+      <c r="B841" s="1" t="s">
         <v>1067</v>
       </c>
       <c r="C841" s="1" t="str">
@@ -25325,10 +25345,10 @@
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="0" t="s">
+      <c r="A842" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B842" s="0" t="s">
+      <c r="B842" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="C842" s="1" t="str">
@@ -25337,10 +25357,10 @@
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="0" t="s">
+      <c r="A843" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B843" s="0" t="s">
+      <c r="B843" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="C843" s="1" t="str">
@@ -25349,10 +25369,10 @@
       </c>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="0" t="s">
+      <c r="A844" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B844" s="0" t="s">
+      <c r="B844" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="C844" s="1" t="str">
@@ -25361,10 +25381,10 @@
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="0" t="s">
+      <c r="A845" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B845" s="0" t="s">
+      <c r="B845" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="C845" s="1" t="str">
@@ -25373,10 +25393,10 @@
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="0" t="s">
+      <c r="A846" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B846" s="0" t="s">
+      <c r="B846" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="C846" s="1" t="str">
@@ -25385,10 +25405,10 @@
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="0" t="s">
+      <c r="A847" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B847" s="0" t="s">
+      <c r="B847" s="1" t="s">
         <v>1293</v>
       </c>
       <c r="C847" s="1" t="str">
@@ -25397,10 +25417,10 @@
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="0" t="s">
+      <c r="A848" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B848" s="0" t="s">
+      <c r="B848" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="C848" s="1" t="str">
@@ -25409,10 +25429,10 @@
       </c>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="0" t="s">
+      <c r="A849" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="B849" s="0" t="s">
+      <c r="B849" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="C849" s="1" t="str">
@@ -25421,10 +25441,10 @@
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="0" t="s">
+      <c r="A850" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B850" s="0" t="s">
+      <c r="B850" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="C850" s="1" t="str">
@@ -25433,10 +25453,10 @@
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="0" t="s">
+      <c r="A851" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B851" s="0" t="s">
+      <c r="B851" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="C851" s="1" t="str">
@@ -25445,10 +25465,10 @@
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="0" t="s">
+      <c r="A852" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="B852" s="0" t="s">
+      <c r="B852" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="C852" s="1" t="str">
@@ -25457,10 +25477,10 @@
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="0" t="s">
+      <c r="A853" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="B853" s="0" t="s">
+      <c r="B853" s="1" t="s">
         <v>1113</v>
       </c>
       <c r="C853" s="1" t="str">
@@ -25469,10 +25489,10 @@
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="0" t="s">
+      <c r="A854" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B854" s="0" t="s">
+      <c r="B854" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C854" s="1" t="str">
@@ -25481,10 +25501,10 @@
       </c>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="0" t="s">
+      <c r="A855" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B855" s="0" t="s">
+      <c r="B855" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="C855" s="1" t="str">
@@ -25493,10 +25513,10 @@
       </c>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="0" t="s">
+      <c r="A856" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B856" s="0" t="s">
+      <c r="B856" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="C856" s="1" t="str">
@@ -25505,10 +25525,10 @@
       </c>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="0" t="s">
+      <c r="A857" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="B857" s="0" t="s">
+      <c r="B857" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="C857" s="1" t="str">
@@ -25517,10 +25537,10 @@
       </c>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="0" t="s">
+      <c r="A858" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B858" s="0" t="s">
+      <c r="B858" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="C858" s="1" t="str">
@@ -25529,10 +25549,10 @@
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="0" t="s">
+      <c r="A859" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B859" s="0" t="s">
+      <c r="B859" s="1" t="s">
         <v>1150</v>
       </c>
       <c r="C859" s="1" t="str">
@@ -25541,10 +25561,10 @@
       </c>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="0" t="s">
+      <c r="A860" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B860" s="0" t="s">
+      <c r="B860" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="C860" s="1" t="str">
@@ -25553,10 +25573,10 @@
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="0" t="s">
+      <c r="A861" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B861" s="0" t="s">
+      <c r="B861" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="C861" s="1" t="str">
@@ -25565,10 +25585,10 @@
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="0" t="s">
+      <c r="A862" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B862" s="0" t="s">
+      <c r="B862" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C862" s="1" t="str">
@@ -25577,10 +25597,10 @@
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="0" t="s">
+      <c r="A863" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B863" s="0" t="s">
+      <c r="B863" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="C863" s="1" t="str">
@@ -25589,10 +25609,10 @@
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="0" t="s">
+      <c r="A864" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B864" s="0" t="s">
+      <c r="B864" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="C864" s="1" t="str">
@@ -25601,10 +25621,10 @@
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="0" t="s">
+      <c r="A865" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B865" s="0" t="s">
+      <c r="B865" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="C865" s="1" t="str">
@@ -25613,10 +25633,10 @@
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="0" t="s">
+      <c r="A866" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B866" s="0" t="s">
+      <c r="B866" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="C866" s="1" t="str">
@@ -25625,10 +25645,10 @@
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="0" t="s">
+      <c r="A867" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="B867" s="0" t="s">
+      <c r="B867" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C867" s="1" t="str">
@@ -25637,10 +25657,10 @@
       </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="0" t="s">
+      <c r="A868" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B868" s="0" t="s">
+      <c r="B868" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="C868" s="1" t="str">
@@ -25649,10 +25669,10 @@
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="0" t="s">
+      <c r="A869" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B869" s="0" t="s">
+      <c r="B869" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="C869" s="1" t="str">
@@ -25661,10 +25681,10 @@
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="0" t="s">
+      <c r="A870" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B870" s="0" t="s">
+      <c r="B870" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="C870" s="1" t="str">
@@ -25673,10 +25693,10 @@
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="0" t="s">
+      <c r="A871" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B871" s="0" t="s">
+      <c r="B871" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C871" s="1" t="str">
@@ -25685,10 +25705,10 @@
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="0" t="s">
+      <c r="A872" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B872" s="0" t="s">
+      <c r="B872" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="C872" s="1" t="str">
@@ -25697,10 +25717,10 @@
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="0" t="s">
+      <c r="A873" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B873" s="0" t="s">
+      <c r="B873" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="C873" s="1" t="str">
@@ -25709,10 +25729,10 @@
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="0" t="s">
+      <c r="A874" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="B874" s="0" t="s">
+      <c r="B874" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="C874" s="1" t="str">
@@ -25721,10 +25741,10 @@
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="0" t="s">
+      <c r="A875" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B875" s="0" t="s">
+      <c r="B875" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="C875" s="1" t="str">
@@ -25733,10 +25753,10 @@
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="0" t="s">
+      <c r="A876" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B876" s="0" t="s">
+      <c r="B876" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="C876" s="1" t="str">
@@ -25745,10 +25765,10 @@
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="0" t="s">
+      <c r="A877" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="B877" s="0" t="s">
+      <c r="B877" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="C877" s="1" t="str">
@@ -25757,10 +25777,10 @@
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="0" t="s">
+      <c r="A878" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B878" s="0" t="s">
+      <c r="B878" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="C878" s="1" t="str">
@@ -25769,10 +25789,10 @@
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="0" t="s">
+      <c r="A879" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B879" s="0" t="s">
+      <c r="B879" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="C879" s="1" t="str">
@@ -25781,10 +25801,10 @@
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="0" t="s">
+      <c r="A880" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B880" s="0" t="s">
+      <c r="B880" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="C880" s="1" t="str">
@@ -25793,10 +25813,10 @@
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="0" t="s">
+      <c r="A881" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B881" s="0" t="s">
+      <c r="B881" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="C881" s="1" t="str">
@@ -25805,10 +25825,10 @@
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="0" t="s">
+      <c r="A882" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B882" s="0" t="s">
+      <c r="B882" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="C882" s="1" t="str">
@@ -25817,10 +25837,10 @@
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="0" t="s">
+      <c r="A883" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="B883" s="0" t="s">
+      <c r="B883" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="C883" s="1" t="str">
@@ -25829,10 +25849,10 @@
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="0" t="s">
+      <c r="A884" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B884" s="0" t="s">
+      <c r="B884" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="C884" s="1" t="str">
@@ -25841,10 +25861,10 @@
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="0" t="s">
+      <c r="A885" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B885" s="0" t="s">
+      <c r="B885" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="C885" s="1" t="str">
@@ -25853,10 +25873,10 @@
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="0" t="s">
+      <c r="A886" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B886" s="0" t="s">
+      <c r="B886" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="C886" s="1" t="str">
@@ -25865,10 +25885,10 @@
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="0" t="s">
+      <c r="A887" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B887" s="0" t="s">
+      <c r="B887" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="C887" s="1" t="str">
@@ -25877,10 +25897,10 @@
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="0" t="s">
+      <c r="A888" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B888" s="0" t="s">
+      <c r="B888" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="C888" s="1" t="str">
@@ -25889,10 +25909,10 @@
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="0" t="s">
+      <c r="A889" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B889" s="0" t="s">
+      <c r="B889" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="C889" s="1" t="str">
@@ -25901,10 +25921,10 @@
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="0" t="s">
+      <c r="A890" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B890" s="0" t="s">
+      <c r="B890" s="1" t="s">
         <v>1180</v>
       </c>
       <c r="C890" s="1" t="str">
@@ -25913,10 +25933,10 @@
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="0" t="s">
+      <c r="A891" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B891" s="0" t="s">
+      <c r="B891" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="C891" s="1" t="str">
@@ -25925,10 +25945,10 @@
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="0" t="s">
+      <c r="A892" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B892" s="0" t="s">
+      <c r="B892" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="C892" s="1" t="str">
@@ -25937,10 +25957,10 @@
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="0" t="s">
+      <c r="A893" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B893" s="0" t="s">
+      <c r="B893" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="C893" s="1" t="str">
@@ -25949,10 +25969,10 @@
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="0" t="s">
+      <c r="A894" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="B894" s="0" t="s">
+      <c r="B894" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="C894" s="1" t="str">
@@ -25961,10 +25981,10 @@
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="0" t="s">
+      <c r="A895" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B895" s="0" t="s">
+      <c r="B895" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="C895" s="1" t="str">
@@ -25973,10 +25993,10 @@
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="0" t="s">
+      <c r="A896" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B896" s="0" t="s">
+      <c r="B896" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="C896" s="1" t="str">
@@ -25985,10 +26005,10 @@
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="0" t="s">
+      <c r="A897" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B897" s="0" t="s">
+      <c r="B897" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="C897" s="1" t="str">
@@ -25997,10 +26017,10 @@
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="0" t="s">
+      <c r="A898" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B898" s="0" t="s">
+      <c r="B898" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="C898" s="1" t="str">
@@ -26009,10 +26029,10 @@
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="0" t="s">
+      <c r="A899" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B899" s="0" t="s">
+      <c r="B899" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="C899" s="1" t="str">
@@ -26021,10 +26041,10 @@
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="0" t="s">
+      <c r="A900" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B900" s="0" t="s">
+      <c r="B900" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C900" s="1" t="str">
@@ -26033,10 +26053,10 @@
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="0" t="s">
+      <c r="A901" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B901" s="0" t="s">
+      <c r="B901" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="C901" s="1" t="str">
@@ -26045,10 +26065,10 @@
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="0" t="s">
+      <c r="A902" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B902" s="0" t="s">
+      <c r="B902" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="C902" s="1" t="str">
@@ -26057,10 +26077,10 @@
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="0" t="s">
+      <c r="A903" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B903" s="0" t="s">
+      <c r="B903" s="1" t="s">
         <v>1255</v>
       </c>
       <c r="C903" s="1" t="str">
@@ -26069,10 +26089,10 @@
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="0" t="s">
+      <c r="A904" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B904" s="0" t="s">
+      <c r="B904" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="C904" s="1" t="str">
@@ -26081,10 +26101,10 @@
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="0" t="s">
+      <c r="A905" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B905" s="0" t="s">
+      <c r="B905" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="C905" s="1" t="str">
@@ -26093,10 +26113,10 @@
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="0" t="s">
+      <c r="A906" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B906" s="0" t="s">
+      <c r="B906" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="C906" s="1" t="str">
@@ -26105,10 +26125,10 @@
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="0" t="s">
+      <c r="A907" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B907" s="0" t="s">
+      <c r="B907" s="1" t="s">
         <v>1018</v>
       </c>
       <c r="C907" s="1" t="str">
@@ -26117,10 +26137,10 @@
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="0" t="s">
+      <c r="A908" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B908" s="0" t="s">
+      <c r="B908" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="C908" s="1" t="str">
@@ -26129,10 +26149,10 @@
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="0" t="s">
+      <c r="A909" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B909" s="0" t="s">
+      <c r="B909" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="C909" s="1" t="str">
@@ -26141,10 +26161,10 @@
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="0" t="s">
+      <c r="A910" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B910" s="0" t="s">
+      <c r="B910" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="C910" s="1" t="str">
@@ -26153,10 +26173,10 @@
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="0" t="s">
+      <c r="A911" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B911" s="0" t="s">
+      <c r="B911" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="C911" s="1" t="str">
@@ -26165,10 +26185,10 @@
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="0" t="s">
+      <c r="A912" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="B912" s="0" t="s">
+      <c r="B912" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="C912" s="1" t="str">
@@ -26177,10 +26197,10 @@
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="0" t="s">
+      <c r="A913" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B913" s="0" t="s">
+      <c r="B913" s="1" t="s">
         <v>1256</v>
       </c>
       <c r="C913" s="1" t="str">
@@ -26189,10 +26209,10 @@
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="0" t="s">
+      <c r="A914" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B914" s="0" t="s">
+      <c r="B914" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="C914" s="1" t="str">
@@ -26201,10 +26221,10 @@
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="0" t="s">
+      <c r="A915" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B915" s="0" t="s">
+      <c r="B915" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C915" s="1" t="str">
@@ -26213,10 +26233,10 @@
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="0" t="s">
+      <c r="A916" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B916" s="0" t="s">
+      <c r="B916" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="C916" s="1" t="str">
@@ -26225,10 +26245,10 @@
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="0" t="s">
+      <c r="A917" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B917" s="0" t="s">
+      <c r="B917" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="C917" s="1" t="str">
@@ -26237,10 +26257,10 @@
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="0" t="s">
+      <c r="A918" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B918" s="0" t="s">
+      <c r="B918" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="C918" s="1" t="str">
@@ -26249,10 +26269,10 @@
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="0" t="s">
+      <c r="A919" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B919" s="0" t="s">
+      <c r="B919" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C919" s="1" t="str">
@@ -26261,10 +26281,10 @@
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="0" t="s">
+      <c r="A920" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B920" s="0" t="s">
+      <c r="B920" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="C920" s="1" t="str">
@@ -26273,10 +26293,10 @@
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="0" t="s">
+      <c r="A921" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B921" s="0" t="s">
+      <c r="B921" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="C921" s="1" t="str">
@@ -26285,10 +26305,10 @@
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="0" t="s">
+      <c r="A922" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B922" s="0" t="s">
+      <c r="B922" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="C922" s="1" t="str">
@@ -26297,10 +26317,10 @@
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="0" t="s">
+      <c r="A923" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B923" s="0" t="s">
+      <c r="B923" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="C923" s="1" t="str">
@@ -26309,10 +26329,10 @@
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="0" t="s">
+      <c r="A924" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B924" s="0" t="s">
+      <c r="B924" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="C924" s="1" t="str">
@@ -26321,10 +26341,10 @@
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="0" t="s">
+      <c r="A925" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="B925" s="0" t="s">
+      <c r="B925" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="C925" s="1" t="str">
@@ -26333,10 +26353,10 @@
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="0" t="s">
+      <c r="A926" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B926" s="0" t="s">
+      <c r="B926" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="C926" s="1" t="str">
@@ -26345,10 +26365,10 @@
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="0" t="s">
+      <c r="A927" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B927" s="0" t="s">
+      <c r="B927" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="C927" s="1" t="str">
@@ -26357,10 +26377,10 @@
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="0" t="s">
+      <c r="A928" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B928" s="0" t="s">
+      <c r="B928" s="1" t="s">
         <v>1256</v>
       </c>
       <c r="C928" s="1" t="str">
@@ -26369,10 +26389,10 @@
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="0" t="s">
+      <c r="A929" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="B929" s="0" t="s">
+      <c r="B929" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="C929" s="1" t="str">
@@ -26381,10 +26401,10 @@
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="0" t="s">
+      <c r="A930" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="B930" s="0" t="s">
+      <c r="B930" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="C930" s="1" t="str">
@@ -26393,10 +26413,10 @@
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="0" t="s">
+      <c r="A931" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B931" s="0" t="s">
+      <c r="B931" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="C931" s="1" t="str">
@@ -26405,10 +26425,10 @@
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="0" t="s">
+      <c r="A932" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B932" s="0" t="s">
+      <c r="B932" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="C932" s="1" t="str">
@@ -26417,10 +26437,10 @@
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="0" t="s">
+      <c r="A933" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B933" s="0" t="s">
+      <c r="B933" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="C933" s="1" t="str">
@@ -26429,10 +26449,10 @@
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="0" t="s">
+      <c r="A934" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="B934" s="0" t="s">
+      <c r="B934" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="C934" s="1" t="str">
@@ -26441,10 +26461,10 @@
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="0" t="s">
+      <c r="A935" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B935" s="0" t="s">
+      <c r="B935" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="C935" s="1" t="str">
@@ -26453,10 +26473,10 @@
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="0" t="s">
+      <c r="A936" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="B936" s="0" t="s">
+      <c r="B936" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="C936" s="1" t="str">
@@ -26465,10 +26485,10 @@
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="0" t="s">
+      <c r="A937" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B937" s="0" t="s">
+      <c r="B937" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="C937" s="1" t="str">
@@ -26477,10 +26497,10 @@
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="0" t="s">
+      <c r="A938" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B938" s="0" t="s">
+      <c r="B938" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="C938" s="1" t="str">
@@ -26489,10 +26509,10 @@
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="0" t="s">
+      <c r="A939" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B939" s="0" t="s">
+      <c r="B939" s="1" t="s">
         <v>1255</v>
       </c>
       <c r="C939" s="1" t="str">
@@ -26501,10 +26521,10 @@
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="0" t="s">
+      <c r="A940" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B940" s="0" t="s">
+      <c r="B940" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="C940" s="1" t="str">
@@ -26513,10 +26533,10 @@
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="0" t="s">
+      <c r="A941" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B941" s="0" t="s">
+      <c r="B941" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="C941" s="1" t="str">
@@ -26525,10 +26545,10 @@
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="0" t="s">
+      <c r="A942" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B942" s="0" t="s">
+      <c r="B942" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="C942" s="1" t="str">
@@ -26537,10 +26557,10 @@
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="0" t="s">
+      <c r="A943" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B943" s="0" t="s">
+      <c r="B943" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="C943" s="1" t="str">
@@ -26549,10 +26569,10 @@
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="0" t="s">
+      <c r="A944" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="B944" s="0" t="s">
+      <c r="B944" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="C944" s="1" t="str">
@@ -26561,10 +26581,10 @@
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="0" t="s">
+      <c r="A945" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B945" s="0" t="s">
+      <c r="B945" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="C945" s="1" t="str">
@@ -26573,10 +26593,10 @@
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="0" t="s">
+      <c r="A946" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B946" s="0" t="s">
+      <c r="B946" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="C946" s="1" t="str">
@@ -26585,10 +26605,10 @@
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="0" t="s">
+      <c r="A947" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B947" s="0" t="s">
+      <c r="B947" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="C947" s="1" t="str">
@@ -26597,10 +26617,10 @@
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="0" t="s">
+      <c r="A948" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B948" s="0" t="s">
+      <c r="B948" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C948" s="1" t="str">
@@ -26609,10 +26629,10 @@
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="0" t="s">
+      <c r="A949" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="B949" s="0" t="s">
+      <c r="B949" s="1" t="s">
         <v>1294</v>
       </c>
       <c r="C949" s="1" t="str">
@@ -26621,10 +26641,10 @@
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="0" t="s">
+      <c r="A950" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B950" s="0" t="s">
+      <c r="B950" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="C950" s="1" t="str">
@@ -26633,10 +26653,10 @@
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="0" t="s">
+      <c r="A951" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B951" s="0" t="s">
+      <c r="B951" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="C951" s="1" t="str">
@@ -26645,10 +26665,10 @@
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="0" t="s">
+      <c r="A952" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B952" s="0" t="s">
+      <c r="B952" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="C952" s="1" t="str">
@@ -26657,10 +26677,10 @@
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="0" t="s">
+      <c r="A953" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B953" s="0" t="s">
+      <c r="B953" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="C953" s="1" t="str">
@@ -26669,10 +26689,10 @@
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="0" t="s">
+      <c r="A954" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="B954" s="0" t="s">
+      <c r="B954" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="C954" s="1" t="str">
@@ -26681,10 +26701,10 @@
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="0" t="s">
+      <c r="A955" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B955" s="0" t="s">
+      <c r="B955" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="C955" s="1" t="str">
@@ -26693,10 +26713,10 @@
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="0" t="s">
+      <c r="A956" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B956" s="0" t="s">
+      <c r="B956" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="C956" s="1" t="str">
@@ -26705,10 +26725,10 @@
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="0" t="s">
+      <c r="A957" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B957" s="0" t="s">
+      <c r="B957" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="C957" s="1" t="str">
@@ -26717,10 +26737,10 @@
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="0" t="s">
+      <c r="A958" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B958" s="0" t="s">
+      <c r="B958" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="C958" s="1" t="str">
@@ -26729,10 +26749,10 @@
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="0" t="s">
+      <c r="A959" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B959" s="0" t="s">
+      <c r="B959" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="C959" s="1" t="str">
@@ -26741,10 +26761,10 @@
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="0" t="s">
+      <c r="A960" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B960" s="0" t="s">
+      <c r="B960" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="C960" s="1" t="str">
@@ -26753,10 +26773,10 @@
       </c>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="0" t="s">
+      <c r="A961" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B961" s="0" t="s">
+      <c r="B961" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="C961" s="1" t="str">
@@ -26765,10 +26785,10 @@
       </c>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="0" t="s">
+      <c r="A962" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B962" s="0" t="s">
+      <c r="B962" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="C962" s="1" t="str">
@@ -26777,10 +26797,10 @@
       </c>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="0" t="s">
+      <c r="A963" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B963" s="0" t="s">
+      <c r="B963" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="C963" s="1" t="str">
@@ -26789,10 +26809,10 @@
       </c>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="0" t="s">
+      <c r="A964" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B964" s="0" t="s">
+      <c r="B964" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="C964" s="1" t="str">
@@ -26801,10 +26821,10 @@
       </c>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="0" t="s">
+      <c r="A965" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B965" s="0" t="s">
+      <c r="B965" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="C965" s="1" t="str">
@@ -26813,10 +26833,10 @@
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="0" t="s">
+      <c r="A966" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B966" s="0" t="s">
+      <c r="B966" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="C966" s="1" t="str">
@@ -26825,10 +26845,10 @@
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="0" t="s">
+      <c r="A967" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B967" s="0" t="s">
+      <c r="B967" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="C967" s="1" t="str">
@@ -26837,10 +26857,10 @@
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="0" t="s">
+      <c r="A968" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="B968" s="0" t="s">
+      <c r="B968" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C968" s="1" t="str">
@@ -26849,10 +26869,10 @@
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="0" t="s">
+      <c r="A969" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B969" s="0" t="s">
+      <c r="B969" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="C969" s="1" t="str">
@@ -26861,10 +26881,10 @@
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="0" t="s">
+      <c r="A970" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B970" s="0" t="s">
+      <c r="B970" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="C970" s="1" t="str">
@@ -26873,10 +26893,10 @@
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="0" t="s">
+      <c r="A971" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B971" s="0" t="s">
+      <c r="B971" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="C971" s="1" t="str">
@@ -26885,10 +26905,10 @@
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="0" t="s">
+      <c r="A972" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B972" s="0" t="s">
+      <c r="B972" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="C972" s="1" t="str">
@@ -26897,10 +26917,10 @@
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="0" t="s">
+      <c r="A973" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B973" s="0" t="s">
+      <c r="B973" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="C973" s="1" t="str">
@@ -26909,10 +26929,10 @@
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="0" t="s">
+      <c r="A974" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="B974" s="0" t="s">
+      <c r="B974" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="C974" s="1" t="str">
@@ -26921,10 +26941,10 @@
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="0" t="s">
+      <c r="A975" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B975" s="0" t="s">
+      <c r="B975" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="C975" s="1" t="str">
@@ -26933,10 +26953,10 @@
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="0" t="s">
+      <c r="A976" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B976" s="0" t="s">
+      <c r="B976" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="C976" s="1" t="str">
@@ -26945,10 +26965,10 @@
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="0" t="s">
+      <c r="A977" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B977" s="0" t="s">
+      <c r="B977" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C977" s="1" t="str">
@@ -26957,10 +26977,10 @@
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="0" t="s">
+      <c r="A978" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B978" s="0" t="s">
+      <c r="B978" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C978" s="1" t="str">
@@ -26969,10 +26989,10 @@
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="0" t="s">
+      <c r="A979" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B979" s="0" t="s">
+      <c r="B979" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="C979" s="1" t="str">
@@ -26981,10 +27001,10 @@
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="0" t="s">
+      <c r="A980" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B980" s="0" t="s">
+      <c r="B980" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="C980" s="1" t="str">
@@ -26993,10 +27013,10 @@
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="0" t="s">
+      <c r="A981" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B981" s="0" t="s">
+      <c r="B981" s="1" t="s">
         <v>1192</v>
       </c>
       <c r="C981" s="1" t="str">
@@ -27005,10 +27025,10 @@
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="0" t="s">
+      <c r="A982" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B982" s="0" t="s">
+      <c r="B982" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="C982" s="1" t="str">
@@ -27017,10 +27037,10 @@
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="0" t="s">
+      <c r="A983" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B983" s="0" t="s">
+      <c r="B983" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="C983" s="1" t="str">
@@ -27029,10 +27049,10 @@
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="0" t="s">
+      <c r="A984" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B984" s="0" t="s">
+      <c r="B984" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="C984" s="1" t="str">
@@ -27041,10 +27061,10 @@
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="0" t="s">
+      <c r="A985" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B985" s="0" t="s">
+      <c r="B985" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C985" s="1" t="str">
@@ -27053,10 +27073,10 @@
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="0" t="s">
+      <c r="A986" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B986" s="0" t="s">
+      <c r="B986" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="C986" s="1" t="str">
@@ -27065,10 +27085,10 @@
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="0" t="s">
+      <c r="A987" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B987" s="0" t="s">
+      <c r="B987" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C987" s="1" t="str">
@@ -27077,10 +27097,10 @@
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="0" t="s">
+      <c r="A988" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B988" s="0" t="s">
+      <c r="B988" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="C988" s="1" t="str">
@@ -27089,10 +27109,10 @@
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="0" t="s">
+      <c r="A989" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B989" s="0" t="s">
+      <c r="B989" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="C989" s="1" t="str">
@@ -27101,10 +27121,10 @@
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="0" t="s">
+      <c r="A990" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B990" s="0" t="s">
+      <c r="B990" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="C990" s="1" t="str">
@@ -27113,10 +27133,10 @@
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="0" t="s">
+      <c r="A991" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B991" s="0" t="s">
+      <c r="B991" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="C991" s="1" t="str">
@@ -27125,10 +27145,10 @@
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="0" t="s">
+      <c r="A992" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B992" s="0" t="s">
+      <c r="B992" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="C992" s="1" t="str">
@@ -27137,10 +27157,10 @@
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="0" t="s">
+      <c r="A993" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B993" s="0" t="s">
+      <c r="B993" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="C993" s="1" t="str">
@@ -27149,10 +27169,10 @@
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="0" t="s">
+      <c r="A994" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="B994" s="0" t="s">
+      <c r="B994" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="C994" s="1" t="str">
@@ -27161,10 +27181,10 @@
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="0" t="s">
+      <c r="A995" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B995" s="0" t="s">
+      <c r="B995" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="C995" s="1" t="str">
@@ -27173,10 +27193,10 @@
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="0" t="s">
+      <c r="A996" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B996" s="0" t="s">
+      <c r="B996" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="C996" s="1" t="str">
@@ -27185,10 +27205,10 @@
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="0" t="s">
+      <c r="A997" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B997" s="0" t="s">
+      <c r="B997" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C997" s="1" t="str">
@@ -27197,10 +27217,10 @@
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="0" t="s">
+      <c r="A998" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B998" s="0" t="s">
+      <c r="B998" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="C998" s="1" t="str">
@@ -27209,10 +27229,10 @@
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="0" t="s">
+      <c r="A999" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B999" s="0" t="s">
+      <c r="B999" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="C999" s="1" t="str">
@@ -27221,10 +27241,10 @@
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="0" t="s">
+      <c r="A1000" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B1000" s="0" t="s">
+      <c r="B1000" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="C1000" s="1" t="str">
@@ -27241,4 +27261,1223 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>